--- a/QMU/APP/dataset/zhuangji-ML/撞击-蒙特卡洛.xlsx
+++ b/QMU/APP/dataset/zhuangji-ML/撞击-蒙特卡洛.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB\MyMatlab\QMU\APP\dataset\zhuangji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB\MyMatlab\QMU\APP\dataset\zhuangji-ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50E1D92-464E-4BD1-89B7-974B4CC4A69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08415292-FDA2-44AE-9A99-31BE024A9932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="30" windowWidth="17640" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C500"/>
+  <dimension ref="A1:C650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I487" sqref="I487"/>
+    <sheetView tabSelected="1" topLeftCell="A642" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A601" sqref="A601:C650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5852,6 +5852,1656 @@
         <v>0</v>
       </c>
     </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>200</v>
+      </c>
+      <c r="B501">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>200</v>
+      </c>
+      <c r="B502">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>200</v>
+      </c>
+      <c r="B503">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>200</v>
+      </c>
+      <c r="B504">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>200</v>
+      </c>
+      <c r="B505">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>200</v>
+      </c>
+      <c r="B506">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>200</v>
+      </c>
+      <c r="B507">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>200</v>
+      </c>
+      <c r="B508">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>200</v>
+      </c>
+      <c r="B509">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>200</v>
+      </c>
+      <c r="B510">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>200</v>
+      </c>
+      <c r="B511">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>200</v>
+      </c>
+      <c r="B512">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>200</v>
+      </c>
+      <c r="B513">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>200</v>
+      </c>
+      <c r="B514">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>200</v>
+      </c>
+      <c r="B515">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>200</v>
+      </c>
+      <c r="B516">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>200</v>
+      </c>
+      <c r="B517">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>200</v>
+      </c>
+      <c r="B518">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>200</v>
+      </c>
+      <c r="B519">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>200</v>
+      </c>
+      <c r="B520">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>200</v>
+      </c>
+      <c r="B521">
+        <v>1.1479373333</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>200</v>
+      </c>
+      <c r="B522">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>200</v>
+      </c>
+      <c r="B523">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>200</v>
+      </c>
+      <c r="B524">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>200</v>
+      </c>
+      <c r="B525">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>200</v>
+      </c>
+      <c r="B526">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>200</v>
+      </c>
+      <c r="B527">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>200</v>
+      </c>
+      <c r="B528">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>200</v>
+      </c>
+      <c r="B529">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>200</v>
+      </c>
+      <c r="B530">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>200</v>
+      </c>
+      <c r="B531">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>200</v>
+      </c>
+      <c r="B532">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>200</v>
+      </c>
+      <c r="B533">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>200</v>
+      </c>
+      <c r="B534">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>200</v>
+      </c>
+      <c r="B535">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>200</v>
+      </c>
+      <c r="B536">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>200</v>
+      </c>
+      <c r="B537">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>200</v>
+      </c>
+      <c r="B538">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>200</v>
+      </c>
+      <c r="B539">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>200</v>
+      </c>
+      <c r="B540">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>200</v>
+      </c>
+      <c r="B541">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>200</v>
+      </c>
+      <c r="B542">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>200</v>
+      </c>
+      <c r="B543">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>200</v>
+      </c>
+      <c r="B544">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>200</v>
+      </c>
+      <c r="B545">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>200</v>
+      </c>
+      <c r="B546">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>200</v>
+      </c>
+      <c r="B547">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>200</v>
+      </c>
+      <c r="B548">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>200</v>
+      </c>
+      <c r="B549">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>200</v>
+      </c>
+      <c r="B550">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>300</v>
+      </c>
+      <c r="B551">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>300</v>
+      </c>
+      <c r="B552">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>300</v>
+      </c>
+      <c r="B553">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>300</v>
+      </c>
+      <c r="B554">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>300</v>
+      </c>
+      <c r="B555">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>300</v>
+      </c>
+      <c r="B556">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>300</v>
+      </c>
+      <c r="B557">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>300</v>
+      </c>
+      <c r="B558">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>300</v>
+      </c>
+      <c r="B559">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>300</v>
+      </c>
+      <c r="B560">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>300</v>
+      </c>
+      <c r="B561">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>300</v>
+      </c>
+      <c r="B562">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>300</v>
+      </c>
+      <c r="B563">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>300</v>
+      </c>
+      <c r="B564">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>300</v>
+      </c>
+      <c r="B565">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>300</v>
+      </c>
+      <c r="B566">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>300</v>
+      </c>
+      <c r="B567">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>300</v>
+      </c>
+      <c r="B568">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>300</v>
+      </c>
+      <c r="B569">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>300</v>
+      </c>
+      <c r="B570">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>300</v>
+      </c>
+      <c r="B571">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>300</v>
+      </c>
+      <c r="B572">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>300</v>
+      </c>
+      <c r="B573">
+        <v>1.1479373333</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>300</v>
+      </c>
+      <c r="B574">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>300</v>
+      </c>
+      <c r="B575">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>300</v>
+      </c>
+      <c r="B576">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>300</v>
+      </c>
+      <c r="B577">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>300</v>
+      </c>
+      <c r="B578">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>300</v>
+      </c>
+      <c r="B579">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>300</v>
+      </c>
+      <c r="B580">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>300</v>
+      </c>
+      <c r="B581">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>300</v>
+      </c>
+      <c r="B582">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>300</v>
+      </c>
+      <c r="B583">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>300</v>
+      </c>
+      <c r="B584">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>300</v>
+      </c>
+      <c r="B585">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>300</v>
+      </c>
+      <c r="B586">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>300</v>
+      </c>
+      <c r="B587">
+        <v>1.4187293333</v>
+      </c>
+      <c r="C587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>300</v>
+      </c>
+      <c r="B588">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>300</v>
+      </c>
+      <c r="B589">
+        <v>1.4187293333</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>300</v>
+      </c>
+      <c r="B590">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>300</v>
+      </c>
+      <c r="B591">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>300</v>
+      </c>
+      <c r="B592">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>300</v>
+      </c>
+      <c r="B593">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>300</v>
+      </c>
+      <c r="B594">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>300</v>
+      </c>
+      <c r="B595">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>300</v>
+      </c>
+      <c r="B596">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>300</v>
+      </c>
+      <c r="B597">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>300</v>
+      </c>
+      <c r="B598">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>300</v>
+      </c>
+      <c r="B599">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>300</v>
+      </c>
+      <c r="B600">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>400</v>
+      </c>
+      <c r="B601">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>400</v>
+      </c>
+      <c r="B602">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>400</v>
+      </c>
+      <c r="B603">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>400</v>
+      </c>
+      <c r="B604">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>400</v>
+      </c>
+      <c r="B605">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>400</v>
+      </c>
+      <c r="B606">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>400</v>
+      </c>
+      <c r="B607">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>400</v>
+      </c>
+      <c r="B608">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>400</v>
+      </c>
+      <c r="B609">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>400</v>
+      </c>
+      <c r="B610">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>400</v>
+      </c>
+      <c r="B611">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>400</v>
+      </c>
+      <c r="B612">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>400</v>
+      </c>
+      <c r="B613">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>400</v>
+      </c>
+      <c r="B614">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>400</v>
+      </c>
+      <c r="B615">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>400</v>
+      </c>
+      <c r="B616">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>400</v>
+      </c>
+      <c r="B617">
+        <v>1.1479373333</v>
+      </c>
+      <c r="C617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>400</v>
+      </c>
+      <c r="B618">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>400</v>
+      </c>
+      <c r="B619">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>400</v>
+      </c>
+      <c r="B620">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>400</v>
+      </c>
+      <c r="B621">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>400</v>
+      </c>
+      <c r="B622">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>400</v>
+      </c>
+      <c r="B623">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>400</v>
+      </c>
+      <c r="B624">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>400</v>
+      </c>
+      <c r="B625">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>400</v>
+      </c>
+      <c r="B626">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>400</v>
+      </c>
+      <c r="B627">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>400</v>
+      </c>
+      <c r="B628">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>400</v>
+      </c>
+      <c r="B629">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>400</v>
+      </c>
+      <c r="B630">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>400</v>
+      </c>
+      <c r="B631">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>400</v>
+      </c>
+      <c r="B632">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>400</v>
+      </c>
+      <c r="B633">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>400</v>
+      </c>
+      <c r="B634">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>400</v>
+      </c>
+      <c r="B635">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>400</v>
+      </c>
+      <c r="B636">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>400</v>
+      </c>
+      <c r="B637">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>400</v>
+      </c>
+      <c r="B638">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>400</v>
+      </c>
+      <c r="B639">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>400</v>
+      </c>
+      <c r="B640">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>400</v>
+      </c>
+      <c r="B641">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>400</v>
+      </c>
+      <c r="B642">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>400</v>
+      </c>
+      <c r="B643">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>400</v>
+      </c>
+      <c r="B644">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>400</v>
+      </c>
+      <c r="B645">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>400</v>
+      </c>
+      <c r="B646">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>400</v>
+      </c>
+      <c r="B647">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>400</v>
+      </c>
+      <c r="B648">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>400</v>
+      </c>
+      <c r="B649">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>400</v>
+      </c>
+      <c r="B650">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C650">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
